--- a/Exercises/Exercise 2/Book1.xlsx
+++ b/Exercises/Exercise 2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/systemallica/Documents/KU Leuven/ANNs and DL/Exercises/Exercise 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F521E-5DA8-8344-B93E-F089F61DAA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C64AA5-F2BB-F44E-9719-D1A06C410990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5710C50C-E015-824A-BE85-8D7923C9D324}"/>
   </bookViews>
@@ -289,7 +289,7 @@
                   <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.09</c:v>
+                  <c:v>19.995000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,7 +1488,7 @@
   <dimension ref="G7:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,14 +1640,14 @@
         <v>14.56</v>
       </c>
       <c r="H18" s="4">
-        <v>13.62</v>
+        <v>25.43</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="1"/>
-        <v>14.09</v>
+        <v>19.995000000000001</v>
       </c>
     </row>
   </sheetData>
